--- a/TMFramework/DataFiles/Module1.xlsx
+++ b/TMFramework/DataFiles/Module1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Password</t>
   </si>
@@ -47,6 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -419,18 +420,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">

--- a/TMFramework/DataFiles/Module1.xlsx
+++ b/TMFramework/DataFiles/Module1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Password</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>H.No:21-56</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>sunilkumar</t>
   </si>
 </sst>
 </file>
@@ -73,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,28 +90,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:L304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,17 +406,18 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
+    <col min="11" max="11" style="1" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -447,11 +430,8 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
+    <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -461,16 +441,13 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1"/>
-    <row r="7" spans="1:7" s="2" customFormat="1"/>
-    <row r="10" spans="1:7" s="2" customFormat="1"/>
-    <row r="13" spans="1:7" s="2" customFormat="1"/>
-    <row r="16" spans="1:7" s="2" customFormat="1"/>
+    <row r="4" spans="1:6" s="2" customFormat="1"/>
+    <row r="7" spans="1:6" s="2" customFormat="1"/>
+    <row r="10" spans="1:6" s="2" customFormat="1"/>
+    <row r="13" spans="1:6" s="2" customFormat="1"/>
+    <row r="16" spans="1:6" s="2" customFormat="1"/>
     <row r="19" s="2" customFormat="1"/>
     <row r="22" s="2" customFormat="1"/>
     <row r="25" s="2" customFormat="1"/>

--- a/TMFramework/DataFiles/Module1.xlsx
+++ b/TMFramework/DataFiles/Module1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Password</t>
   </si>
